--- a/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,7</t>
+          <t>0,18; 1,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,79</t>
+          <t>0,57; 2,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,66</t>
+          <t>0,33; 2,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 5,76</t>
+          <t>0,08; 5,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,83</t>
+          <t>2,3; 5,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,91</t>
+          <t>1,62; 5,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,32</t>
+          <t>1,61; 5,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,46</t>
+          <t>2,08; 9,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,17</t>
+          <t>1,28; 3,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,23</t>
+          <t>1,38; 3,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,18</t>
+          <t>1,29; 3,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,44</t>
+          <t>1,46; 5,66</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,25</t>
+          <t>1,84; 4,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,77</t>
+          <t>2,56; 5,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,7</t>
+          <t>1,34; 3,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,07</t>
+          <t>0,83; 4,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,47</t>
+          <t>3,04; 6,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,89</t>
+          <t>3,74; 7,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,21</t>
+          <t>2,34; 5,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,26</t>
+          <t>3,02; 7,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,76</t>
+          <t>2,67; 4,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,0</t>
+          <t>3,58; 6,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,95</t>
+          <t>2,09; 4,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,02</t>
+          <t>2,28; 4,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,39</t>
+          <t>1,77; 4,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,97</t>
+          <t>4,03; 7,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,43</t>
+          <t>3,73; 7,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,33</t>
+          <t>3,87; 8,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 10,06</t>
+          <t>5,91; 9,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 14,41</t>
+          <t>9,71; 14,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 11,33</t>
+          <t>6,99; 11,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,47</t>
+          <t>7,11; 11,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,73</t>
+          <t>4,34; 6,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 10,42</t>
+          <t>7,43; 10,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,55</t>
+          <t>5,76; 8,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,24</t>
+          <t>6,24; 9,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,02</t>
+          <t>3,73; 8,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,15</t>
+          <t>4,83; 9,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,18</t>
+          <t>5,03; 9,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,7</t>
+          <t>6,34; 11,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,6</t>
+          <t>10,58; 16,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 20,16</t>
+          <t>13,84; 20,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 18,31</t>
+          <t>12,35; 18,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,2; 18,61</t>
+          <t>13,26; 18,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,48</t>
+          <t>7,73; 11,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 13,72</t>
+          <t>9,93; 13,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 12,88</t>
+          <t>9,34; 12,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,19</t>
+          <t>10,48; 14,57</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,87</t>
+          <t>5,22; 10,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 13,57</t>
+          <t>7,78; 14,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 12,03</t>
+          <t>6,64; 11,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,8</t>
+          <t>9,77; 14,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,05; 22,8</t>
+          <t>15,21; 22,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,03; 27,79</t>
+          <t>19,17; 27,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,16; 30,56</t>
+          <t>22,52; 30,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,41; 28,1</t>
+          <t>22,49; 28,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 15,7</t>
+          <t>11,03; 15,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,79</t>
+          <t>14,65; 19,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,31; 20,54</t>
+          <t>15,39; 20,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,59</t>
+          <t>16,86; 20,89</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,06</t>
+          <t>9,62; 15,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,58; 15,74</t>
+          <t>9,69; 15,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,91</t>
+          <t>9,61; 14,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,3</t>
+          <t>14,78; 19,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,73</t>
+          <t>16,64; 22,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,67; 32,75</t>
+          <t>25,94; 32,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,29; 31,49</t>
+          <t>24,44; 31,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,53; 33,9</t>
+          <t>20,56; 33,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,32; 18,35</t>
+          <t>14,25; 18,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,37</t>
+          <t>19,79; 24,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,68; 23,29</t>
+          <t>18,72; 23,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 26,78</t>
+          <t>19,13; 26,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 5,72</t>
+          <t>4,18; 5,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 7,59</t>
+          <t>5,76; 7,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,17</t>
+          <t>5,45; 7,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,88; 9,91</t>
+          <t>7,83; 9,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,14; 12,2</t>
+          <t>10,18; 12,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,5; 16,94</t>
+          <t>14,44; 16,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,11; 16,54</t>
+          <t>13,97; 16,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,69</t>
+          <t>15,68; 18,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,81</t>
+          <t>7,41; 8,76</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 11,95</t>
+          <t>10,36; 11,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 11,57</t>
+          <t>10,06; 11,63</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,46; 14,21</t>
+          <t>12,49; 14,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,52</t>
+          <t>0,18; 1,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,69</t>
+          <t>0,6; 2,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,57</t>
+          <t>0,25; 2,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,78</t>
+          <t>2,26; 5,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,17</t>
+          <t>1,56; 4,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,11</t>
+          <t>1,26; 3,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,2</t>
+          <t>1,36; 3,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,3</t>
+          <t>1,21; 3,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,27</t>
+          <t>1,85; 4,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,93</t>
+          <t>2,5; 5,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,93</t>
+          <t>1,35; 3,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,45</t>
+          <t>3,04; 6,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,8</t>
+          <t>3,67; 7,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,09</t>
+          <t>2,2; 5,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,76</t>
+          <t>2,76; 4,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,09</t>
+          <t>3,53; 6,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,1</t>
+          <t>2,13; 4,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,44</t>
+          <t>1,74; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,74</t>
+          <t>4,01; 8,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,24</t>
+          <t>3,63; 7,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,97</t>
+          <t>5,71; 10,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,67</t>
+          <t>9,56; 14,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,33</t>
+          <t>7,05; 11,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,66</t>
+          <t>4,28; 6,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,54</t>
+          <t>7,21; 10,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 8,64</t>
+          <t>5,75; 8,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,07</t>
+          <t>3,64; 7,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,06</t>
+          <t>4,7; 8,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,14</t>
+          <t>5,13; 9,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 16,5</t>
+          <t>10,73; 17,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,84; 20,36</t>
+          <t>13,73; 20,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 18,3</t>
+          <t>12,55; 18,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,4</t>
+          <t>7,94; 11,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 13,75</t>
+          <t>9,95; 13,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 12,86</t>
+          <t>9,48; 12,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,93</t>
+          <t>5,32; 10,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,0</t>
+          <t>7,58; 13,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 11,92</t>
+          <t>6,43; 12,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,21; 22,98</t>
+          <t>14,88; 23,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,17; 27,99</t>
+          <t>19,28; 27,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,52; 30,72</t>
+          <t>22,24; 30,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,03; 15,99</t>
+          <t>11,06; 16,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,65; 19,93</t>
+          <t>14,78; 20,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,39; 20,23</t>
+          <t>15,43; 20,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,16</t>
+          <t>9,0; 14,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,69; 15,93</t>
+          <t>9,52; 15,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,96</t>
+          <t>10,03; 15,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 22,54</t>
+          <t>16,63; 22,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,94; 32,58</t>
+          <t>25,79; 32,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,44; 31,52</t>
+          <t>24,52; 31,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,25; 18,37</t>
+          <t>14,3; 18,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,79; 24,55</t>
+          <t>19,51; 24,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,72; 23,41</t>
+          <t>18,84; 23,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 5,71</t>
+          <t>4,14; 5,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 7,58</t>
+          <t>5,77; 7,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,12</t>
+          <t>5,42; 7,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 12,29</t>
+          <t>10,09; 12,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,44; 16,81</t>
+          <t>14,28; 16,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,97; 16,36</t>
+          <t>13,9; 16,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,41; 8,76</t>
+          <t>7,39; 8,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,36; 11,93</t>
+          <t>10,54; 12,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,06; 11,63</t>
+          <t>10,07; 11,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,89</t>
+          <t>0,61; 2,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,7</t>
+          <t>0,25; 2,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,9</t>
+          <t>0,12; 5,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,59</t>
+          <t>2,23; 5,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,93</t>
+          <t>1,39; 4,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,16</t>
+          <t>1,66; 5,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,56</t>
+          <t>2,03; 9,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,04</t>
+          <t>1,36; 3,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,38</t>
+          <t>1,33; 3,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,35</t>
+          <t>1,17; 3,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,66</t>
+          <t>1,39; 5,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,19</t>
+          <t>1,85; 4,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,81</t>
+          <t>2,4; 5,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,85</t>
+          <t>1,33; 3,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,36</t>
+          <t>0,79; 4,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,36</t>
+          <t>2,98; 6,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,63</t>
+          <t>3,91; 7,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,35</t>
+          <t>2,3; 5,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,72</t>
+          <t>2,94; 7,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,73</t>
+          <t>2,71; 4,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,01</t>
+          <t>3,49; 6,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,15</t>
+          <t>2,08; 3,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,98</t>
+          <t>2,31; 5,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,29</t>
+          <t>1,77; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,22</t>
+          <t>3,92; 7,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,22</t>
+          <t>3,69; 7,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 8,03</t>
+          <t>3,85; 8,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,07</t>
+          <t>5,87; 10,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 14,55</t>
+          <t>9,59; 14,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,4</t>
+          <t>7,11; 11,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 11,45</t>
+          <t>7,26; 11,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,8</t>
+          <t>4,26; 6,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,51</t>
+          <t>7,25; 10,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,62</t>
+          <t>5,72; 8,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,14</t>
+          <t>6,17; 9,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,66</t>
+          <t>3,75; 8,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,92</t>
+          <t>4,89; 9,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,24</t>
+          <t>5,09; 9,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,29</t>
+          <t>6,36; 11,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 17,33</t>
+          <t>10,93; 16,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,73; 20,21</t>
+          <t>13,83; 20,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,62</t>
+          <t>12,52; 18,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 18,83</t>
+          <t>13,2; 18,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 11,71</t>
+          <t>7,87; 11,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 13,68</t>
+          <t>10,01; 13,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 12,93</t>
+          <t>9,34; 12,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 14,57</t>
+          <t>10,27; 14,19</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 10,72</t>
+          <t>5,43; 10,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,58; 13,52</t>
+          <t>7,62; 13,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 12,02</t>
+          <t>6,41; 12,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,81</t>
+          <t>9,71; 14,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,88; 23,02</t>
+          <t>15,05; 22,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,28; 27,3</t>
+          <t>20,03; 27,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,24; 30,73</t>
+          <t>22,16; 30,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,03</t>
+          <t>22,41; 28,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,06; 16,05</t>
+          <t>11,11; 15,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 20,25</t>
+          <t>14,6; 19,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,43; 20,58</t>
+          <t>15,31; 20,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,86; 20,89</t>
+          <t>16,75; 20,59</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 14,76</t>
+          <t>9,54; 15,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,52; 15,96</t>
+          <t>9,58; 15,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,03; 15,11</t>
+          <t>9,63; 14,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,78; 19,45</t>
+          <t>15,04; 19,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,63; 22,78</t>
+          <t>16,66; 22,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,79; 32,54</t>
+          <t>25,67; 32,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,52; 31,29</t>
+          <t>24,29; 31,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,56; 33,96</t>
+          <t>21,53; 33,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,3; 18,78</t>
+          <t>14,32; 18,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 24,41</t>
+          <t>19,66; 24,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,84; 23,47</t>
+          <t>18,68; 23,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,13; 26,86</t>
+          <t>19,51; 26,78</t>
         </is>
       </c>
     </row>
@@ -1569,57 +1569,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,57</t>
+          <t>5,7; 7,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,12</t>
+          <t>5,51; 7,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 9,94</t>
+          <t>7,88; 9,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,09; 12,25</t>
+          <t>10,14; 12,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,28; 16,84</t>
+          <t>14,5; 16,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,9; 16,52</t>
+          <t>14,11; 16,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,68; 18,7</t>
+          <t>15,75; 18,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,39; 8,7</t>
+          <t>7,44; 8,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,54; 12,0</t>
+          <t>10,42; 11,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,07; 11,6</t>
+          <t>10,04; 11,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,32</t>
+          <t>12,46; 14,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 5,76</t>
+          <t>0,12; 6,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,46</t>
+          <t>1,99; 9,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,44</t>
+          <t>1,24; 5,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,07</t>
+          <t>0,82; 4,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,26</t>
+          <t>2,29; 6,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,02</t>
+          <t>1,98; 4,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,33</t>
+          <t>3,84; 8,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,47</t>
+          <t>6,44; 11,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,24</t>
+          <t>5,91; 9,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,7</t>
+          <t>2,89; 10,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,2; 18,61</t>
+          <t>11,91; 17,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,19</t>
+          <t>6,57; 12,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,49%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,8</t>
+          <t>9,68; 14,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,41; 28,1</t>
+          <t>22,25; 27,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,59</t>
+          <t>16,61; 20,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>16,19%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,06</t>
+          <t>7,01; 13,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,58; 15,74</t>
+          <t>7,4; 15,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,91</t>
+          <t>7,35; 13,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,3</t>
+          <t>9,54; 14,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,73</t>
+          <t>16,18; 24,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,67; 32,75</t>
+          <t>21,12; 30,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,29; 31,49</t>
+          <t>25,28; 35,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,53; 33,9</t>
+          <t>7,09; 28,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,32; 18,35</t>
+          <t>12,82; 18,28</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,37</t>
+          <t>15,73; 22,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,68; 23,29</t>
+          <t>17,68; 23,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 26,78</t>
+          <t>7,51; 21,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>31,51%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>10,57; 20,12</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10,04; 19,74</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11,15; 19,14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19,31; 27,38</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14,67; 23,82</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27,44; 37,74</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21,08; 31,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34,09; 40,28</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14,18; 21,08</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21,51; 28,75</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,47; 25,33</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29,29; 34,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11,2%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,14; 5,72</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>5,7; 7,59</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,51; 7,17</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 9,91</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 9,33</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>10,14; 12,2</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>14,5; 16,94</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>14,11; 16,54</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>15,75; 18,69</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 17,92</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>7,44; 8,81</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>10,42; 11,95</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>10,04; 11,57</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>12,46; 14,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 13,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,7</t>
+          <t>0,18; 1,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,79</t>
+          <t>0,58; 2,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,66</t>
+          <t>0,25; 2,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 6,14</t>
+          <t>0,11; 5,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,83</t>
+          <t>2,2; 5,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,91</t>
+          <t>1,56; 5,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,32</t>
+          <t>1,62; 5,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,21</t>
+          <t>2,0; 8,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,17</t>
+          <t>1,31; 3,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,23</t>
+          <t>1,28; 3,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,18</t>
+          <t>1,17; 3,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,05</t>
+          <t>1,27; 5,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,25</t>
+          <t>1,78; 4,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,77</t>
+          <t>2,43; 5,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,7</t>
+          <t>1,35; 3,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,08</t>
+          <t>0,84; 4,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,47</t>
+          <t>3,01; 6,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,89</t>
+          <t>3,73; 7,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,21</t>
+          <t>2,34; 5,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,49</t>
+          <t>2,19; 6,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,76</t>
+          <t>2,69; 4,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,0</t>
+          <t>3,52; 6,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,95</t>
+          <t>2,1; 4,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,64</t>
+          <t>1,92; 4,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,39</t>
+          <t>1,72; 4,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,97</t>
+          <t>3,95; 8,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,43</t>
+          <t>3,52; 7,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,27</t>
+          <t>3,88; 8,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 10,06</t>
+          <t>6,0; 10,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 14,41</t>
+          <t>9,55; 14,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 11,33</t>
+          <t>7,02; 11,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,16</t>
+          <t>6,58; 11,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,73</t>
+          <t>4,29; 6,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 10,42</t>
+          <t>7,44; 10,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,55</t>
+          <t>5,66; 8,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,01</t>
+          <t>5,86; 9,05</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,02</t>
+          <t>3,68; 7,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,15</t>
+          <t>4,73; 9,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,18</t>
+          <t>4,99; 9,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 10,33</t>
+          <t>2,88; 10,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,6</t>
+          <t>10,87; 16,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 20,16</t>
+          <t>13,88; 19,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 18,31</t>
+          <t>12,33; 18,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 17,42</t>
+          <t>12,1; 17,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,48</t>
+          <t>7,82; 11,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 13,72</t>
+          <t>9,77; 13,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 12,88</t>
+          <t>9,35; 13,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,9</t>
+          <t>6,28; 12,92</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,87</t>
+          <t>5,46; 10,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 13,57</t>
+          <t>7,97; 13,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 12,03</t>
+          <t>6,31; 12,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 14,77</t>
+          <t>9,64; 14,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,05; 22,8</t>
+          <t>14,91; 22,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,03; 27,79</t>
+          <t>19,55; 27,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,16; 30,56</t>
+          <t>22,56; 30,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,25; 27,91</t>
+          <t>22,46; 27,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 15,7</t>
+          <t>11,09; 15,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,79</t>
+          <t>14,68; 20,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,31; 20,54</t>
+          <t>15,2; 20,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,61; 20,46</t>
+          <t>16,55; 20,29</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 13,64</t>
+          <t>6,96; 13,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,4; 15,16</t>
+          <t>7,26; 15,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 13,92</t>
+          <t>7,46; 13,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,54; 14,83</t>
+          <t>9,78; 15,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,18; 24,4</t>
+          <t>16,39; 24,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,12; 30,64</t>
+          <t>21,14; 30,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,28; 35,18</t>
+          <t>25,27; 34,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 28,65</t>
+          <t>7,79; 29,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,82; 18,28</t>
+          <t>12,96; 18,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,73; 22,0</t>
+          <t>15,52; 22,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,68; 23,83</t>
+          <t>17,73; 23,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,51; 21,18</t>
+          <t>8,94; 21,42</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,57; 20,12</t>
+          <t>10,67; 20,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,74</t>
+          <t>9,8; 19,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,15; 19,14</t>
+          <t>10,88; 18,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,31; 27,38</t>
+          <t>19,48; 26,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,67; 23,82</t>
+          <t>14,42; 23,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,44; 37,74</t>
+          <t>27,6; 37,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,08; 31,36</t>
+          <t>21,11; 31,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,09; 40,28</t>
+          <t>33,75; 40,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 21,08</t>
+          <t>14,19; 21,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,51; 28,75</t>
+          <t>21,41; 28,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,47; 25,33</t>
+          <t>18,45; 25,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,29; 34,23</t>
+          <t>29,2; 34,17</t>
         </is>
       </c>
     </row>
@@ -1704,52 +1705,52 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,14; 5,72</t>
+          <t>4,21; 5,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,7; 7,59</t>
+          <t>5,81; 7,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,17</t>
+          <t>5,51; 7,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,33</t>
+          <t>6,53; 9,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,14; 12,2</t>
+          <t>10,1; 12,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,5; 16,94</t>
+          <t>14,42; 16,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,11; 16,54</t>
+          <t>13,98; 16,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,92</t>
+          <t>12,89; 17,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,81</t>
+          <t>7,45; 8,85</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,42; 11,95</t>
+          <t>10,43; 12,04</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,72; 13,34</t>
+          <t>10,81; 13,44</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5326</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17170</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12476</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12076</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14276</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19978</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18854</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19602</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>908; 7456</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2649; 12972</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1060; 10790</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>450; 23460</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10262; 25903</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6725; 21797</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6393; 20239</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6273; 27871</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12637; 30622</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11311; 28370</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9527; 26159</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9049; 36566</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21214</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26873</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13882</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8433</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28002</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33102</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20196</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21093</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49216</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>59975</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34079</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29526</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13114; 31611</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16674; 39152</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7979; 22835</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3566; 19444</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18837; 41277</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22758; 47902</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13203; 30164</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11232; 33044</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>36587; 64432</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>45718; 78292</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24192; 47236</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17989; 43850</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18107</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>38767</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34459</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30546</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>53740</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>84020</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>59870</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52485</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>71847</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>122786</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>94329</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>83030</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10956; 27679</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26933; 54943</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23521; 47593</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20829; 43500</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>41408; 70422</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67892; 101480</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46397; 74002</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38934; 65957</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56938; 90735</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>103552; 148779</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>75332; 113799</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>66169; 102065</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28389</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40795</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44931</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>60521</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69938</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>104251</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>99114</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>105388</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>98327</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>145046</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>144045</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>165909</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19091; 40491</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29045; 55798</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32254; 60377</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25531; 92411</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>56054; 85946</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>85515; 122654</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>80056; 120290</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>86256; 126496</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>80932; 120681</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>120228; 168332</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>121150; 168673</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100454; 206851</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>30127</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45096</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42714</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>67729</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>75472</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>104774</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>130425</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>137397</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>105599</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>149870</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>173139</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>205127</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21129; 42242</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34208; 59709</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30167; 57857</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>54125; 83606</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>60235; 92031</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>87551; 123511</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>112071; 153830</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>123057; 152502</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>87675; 124888</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>128812; 176757</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>148175; 196754</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>183530; 225035</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>28898</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>33672</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>34344</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>45109</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>69404</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>90787</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>112501</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>113038</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>98302</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>124459</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>146845</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>158148</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>20374; 40396</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>22482; 47265</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>24941; 46328</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>36020; 55242</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>56205; 83852</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>74836; 107302</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>95470; 131940</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>47397; 176734</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>82332; 116039</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>102990; 146659</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>126243; 170307</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>87263; 209206</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31483</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>36099</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>37873</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>64938</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>63081</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>125417</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>104149</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>158365</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>94565</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>161517</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>142022</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>223303</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>22386; 42425</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>24478; 49094</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>27974; 48448</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>55079; 76284</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48150; 77758</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>107340; 146417</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>84492; 124081</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>143709; 171762</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>77152; 114863</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>136791; 184907</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>121243; 165465</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>206899; 242133</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>227680</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>212698</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>282602</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>376807</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>554826</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>538331</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>602042</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>537832</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>782506</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>751029</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>884644</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>137978; 188322</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>198997; 261076</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>187163; 243107</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>225782; 324905</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>341295; 413853</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>513093; 597912</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>495516; 583035</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>478497; 656282</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>495709; 588787</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>728374; 840686</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>696759; 802928</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>775592; 964118</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>